--- a/users.xlsx
+++ b/users.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roman/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anatolii/src/parserform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B52A9288-0584-8844-B3AE-72E718DB2F22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16840" xr2:uid="{3E2ABB25-1A4C-E74A-A365-BAC2EA8D0DFA}"/>
+    <workbookView xWindow="7820" yWindow="460" windowWidth="25600" windowHeight="14280"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,41 +38,48 @@
     <t>ivan</t>
   </si>
   <si>
-    <t>ivanov</t>
-  </si>
-  <si>
-    <t>ivanovich</t>
-  </si>
-  <si>
     <t>anton</t>
   </si>
   <si>
-    <t>antonov</t>
-  </si>
-  <si>
-    <t>antonovich</t>
-  </si>
-  <si>
     <t>vasiliy</t>
   </si>
   <si>
-    <t>vasilev</t>
-  </si>
-  <si>
-    <t>vasilevich</t>
+    <t>ivanov@mail.ru</t>
+  </si>
+  <si>
+    <t>antonov@mail.ru</t>
+  </si>
+  <si>
+    <t>vasilev@mail.ru</t>
+  </si>
+  <si>
+    <t>Ivanovich123</t>
+  </si>
+  <si>
+    <t>Antonovich123</t>
+  </si>
+  <si>
+    <t>Vasilevich123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -91,13 +100,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -409,49 +421,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86245178-A937-7044-910C-BB326B38C337}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/users.xlsx
+++ b/users.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7820" yWindow="460" windowWidth="25600" windowHeight="14280"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ivan</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>Vasilevich123</t>
+  </si>
+  <si>
+    <t>igor</t>
+  </si>
+  <si>
+    <t>igor@yandex.ru</t>
+  </si>
+  <si>
+    <t>Igor123</t>
   </si>
 </sst>
 </file>
@@ -422,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,11 +475,23 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/users.xlsx
+++ b/users.xlsx
@@ -1,64 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26215"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anatolii/src/parserform/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260"/>
-  </bookViews>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="My Sheet" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Reg Time</t>
+  </si>
   <si>
     <t>ivan</t>
   </si>
   <si>
+    <t>ivanov@mail.ru</t>
+  </si>
+  <si>
+    <t>Ivanovich123</t>
+  </si>
+  <si>
     <t>anton</t>
   </si>
   <si>
+    <t>antonov@mail.ru</t>
+  </si>
+  <si>
+    <t>Antonovich123</t>
+  </si>
+  <si>
     <t>vasiliy</t>
   </si>
   <si>
-    <t>ivanov@mail.ru</t>
-  </si>
-  <si>
-    <t>antonov@mail.ru</t>
-  </si>
-  <si>
     <t>vasilev@mail.ru</t>
   </si>
   <si>
-    <t>Ivanovich123</t>
-  </si>
-  <si>
-    <t>Antonovich123</t>
-  </si>
-  <si>
     <t>Vasilevich123</t>
   </si>
   <si>
@@ -69,27 +59,28 @@
   </si>
   <si>
     <t>Igor123</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>qwer@mail.ru</t>
+  </si>
+  <si>
+    <t>Qwe123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,17 +100,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -135,9 +124,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -145,44 +134,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -210,31 +199,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -262,26 +234,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -290,209 +245,299 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <dimension ref="A1:D6"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="1" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="1">
+        <v>43901.32741914352</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43901.327479432875</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43901.3274891551</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43901.32749846065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43901.327506898146</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>